--- a/solver/excel/extract/first/铅钡.xlsx
+++ b/solver/excel/extract/first/铅钡.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mathematical_modeling\CUMCM2022\solver\excel\extract\first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C6AF0-6100-41B3-B5C5-52BDFE846934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0F43F-0CDF-4EF7-96B6-06163134D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{82982906-3423-4703-A6E2-BAEF40A711F6}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{82982906-3423-4703-A6E2-BAEF40A711F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="84">
   <si>
     <t>文物采样点</t>
   </si>
@@ -1216,6 +1218,504 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52180F36-117C-41AB-BD4D-C9D64EE4E870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25716C4-97C2-46CC-A02B-A9E62AA9ABED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008A8B97-0374-4F68-AE28-136F9D885E4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC92F88-3AEF-498A-A465-FC74E9CE0026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EE5D60-31D3-4A80-B284-CBFF07EEFE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674DF7A1-DEF4-4994-9315-14726DE015BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF2E536-381E-4282-A3F3-9CBAB7B4AD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>704022</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EBFC0C-966D-4E3B-8B55-BAFFAB7A5288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11657772" y="1627533"/>
+          <a:ext cx="0" cy="191522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -1515,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF5FC09-2130-481C-A262-181F12DF223D}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4383,4 +4883,3622 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B9AF53-2801-47B9-94D9-3E99B911EBB0}">
+  <dimension ref="A1:U40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6">
+        <v>36.28</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5.73</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.86</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="J2" s="6">
+        <v>47.43</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7">
+        <f t="shared" ref="P2:P50" si="0">SUM(B2:O2)</f>
+        <v>99.889999999999986</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>20.14</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <v>10.41</v>
+      </c>
+      <c r="J3" s="6">
+        <v>28.68</v>
+      </c>
+      <c r="K3" s="6">
+        <v>31.23</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3.59</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>2.58</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>99.820000000000007</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="J4" s="6">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="K4" s="6">
+        <v>30.62</v>
+      </c>
+      <c r="L4" s="6">
+        <v>7.56</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>15.03</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="0"/>
+        <v>98.240000000000009</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>4.93</v>
+      </c>
+      <c r="J5" s="6">
+        <v>25.39</v>
+      </c>
+      <c r="K5" s="6">
+        <v>14.61</v>
+      </c>
+      <c r="L5" s="6">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>95.39</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
+        <v>29.64</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42.82</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="L6" s="6">
+        <v>8.83</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>98.759999999999991</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>19.79</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
+        <v>10.57</v>
+      </c>
+      <c r="J7" s="6">
+        <v>29.53</v>
+      </c>
+      <c r="K7" s="6">
+        <v>32.25</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>1.96</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>99.82</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>1.18</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="J8" s="6">
+        <v>29.92</v>
+      </c>
+      <c r="K8" s="6">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="L8" s="6">
+        <v>6.04</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>15.95</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>99.890000000000015</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <v>35.78</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="J9" s="6">
+        <v>46.55</v>
+      </c>
+      <c r="K9" s="6">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="7">
+        <f t="shared" si="0"/>
+        <v>97.52</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
+        <v>39.57</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="J10" s="6">
+        <v>41.61</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10.83</v>
+      </c>
+      <c r="L10" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>97.629999999999981</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6">
+        <v>32.93</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>2.57</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="J11" s="6">
+        <v>49.31</v>
+      </c>
+      <c r="K11" s="6">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>98.570000000000007</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6">
+        <v>26.25</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="J12" s="6">
+        <v>61.03</v>
+      </c>
+      <c r="K12" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>98.759999999999991</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6">
+        <v>16.71</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="K13" s="6">
+        <v>6.69</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="7">
+        <f t="shared" si="0"/>
+        <v>98.57</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>18.46</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.73</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="J14" s="6">
+        <v>44.12</v>
+      </c>
+      <c r="K14" s="6">
+        <v>9.76</v>
+      </c>
+      <c r="L14" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>93.71</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6">
+        <v>12.41</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>5.24</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5.35</v>
+      </c>
+      <c r="J15" s="6">
+        <v>59.85</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7.29</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="7">
+        <f t="shared" si="0"/>
+        <v>94.68</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6">
+        <v>21.7</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3.41</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="J16" s="6">
+        <v>44.75</v>
+      </c>
+      <c r="K16" s="6">
+        <v>3.26</v>
+      </c>
+      <c r="L16" s="6">
+        <v>12.83</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="7">
+        <f t="shared" si="0"/>
+        <v>96.67</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6">
+        <v>53.33</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.82</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13.65</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
+        <v>15.71</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7.31</v>
+      </c>
+      <c r="L17" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>99.169999999999987</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>28.79</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>4.58</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.47</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5.38</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="6">
+        <v>34.18</v>
+      </c>
+      <c r="K18" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="7">
+        <f t="shared" si="0"/>
+        <v>95.499999999999986</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="6">
+        <v>17.98</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J19" s="6">
+        <v>44</v>
+      </c>
+      <c r="K19" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="7">
+        <f t="shared" si="0"/>
+        <v>90.17</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="6">
+        <v>24.61</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>3.58</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.25</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.37</v>
+      </c>
+      <c r="J20" s="6">
+        <v>40.24</v>
+      </c>
+      <c r="K20" s="6">
+        <v>8.94</v>
+      </c>
+      <c r="L20" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>95.329999999999984</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6">
+        <v>21.35</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6">
+        <v>5.13</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J21" s="6">
+        <v>51.34</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <v>8.75</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>91.7</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="6">
+        <v>25.74</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="6">
+        <v>47.42</v>
+      </c>
+      <c r="K22" s="6">
+        <v>8.64</v>
+      </c>
+      <c r="L22" s="6">
+        <v>5.71</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>94.079999999999984</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22.28</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.19</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="J23" s="6">
+        <v>55.46</v>
+      </c>
+      <c r="K23" s="6">
+        <v>7.04</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>99.67</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6">
+        <v>17.11</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3.65</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="J24" s="6">
+        <v>58.46</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
+        <v>14.13</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="7">
+        <f t="shared" si="0"/>
+        <v>96.92</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="6">
+        <v>29.15</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>1.85</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="J25" s="6">
+        <v>41.25</v>
+      </c>
+      <c r="K25" s="6">
+        <v>15.45</v>
+      </c>
+      <c r="L25" s="6">
+        <v>2.54</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>92.240000000000009</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25.42</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J26" s="6">
+        <v>45.1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>92.47</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>30.39</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="J27" s="6">
+        <v>39.35</v>
+      </c>
+      <c r="K27" s="6">
+        <v>7.66</v>
+      </c>
+      <c r="L27" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>98.759999999999991</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6">
+        <v>53.79</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7.92</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="J28" s="6">
+        <v>16.98</v>
+      </c>
+      <c r="K28" s="6">
+        <v>11.86</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="7">
+        <f>SUM(B28:O28)</f>
+        <v>96.5</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="6">
+        <v>50.61</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2.31</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="H29" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J29" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="K29" s="6">
+        <v>6.65</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="7">
+        <f>SUM(B29:O29)</f>
+        <v>97.06</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="6">
+        <v>54.61</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="J30" s="6">
+        <v>23.02</v>
+      </c>
+      <c r="K30" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4.32</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="7">
+        <f>SUM(B30:O30)</f>
+        <v>98.24</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="6">
+        <v>63.66</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3.04</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G31" s="6">
+        <v>6.06</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="J31" s="6">
+        <v>13.66</v>
+      </c>
+      <c r="K31" s="6">
+        <v>8.99</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="7">
+        <f>SUM(B31:O31)</f>
+        <v>98.25</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45.02</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>3.12</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="J32" s="6">
+        <v>30.61</v>
+      </c>
+      <c r="K32" s="6">
+        <v>6.22</v>
+      </c>
+      <c r="L32" s="6">
+        <v>6.34</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="7">
+        <f>SUM(B32:O32)</f>
+        <v>96.940000000000012</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6">
+        <v>60.74</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>12.69</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="J33" s="6">
+        <v>13.61</v>
+      </c>
+      <c r="K33" s="6">
+        <v>5.22</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="7">
+        <f>SUM(B33:O33)</f>
+        <v>99.12</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="6">
+        <v>51.26</v>
+      </c>
+      <c r="C34" s="6">
+        <v>5.74</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3.53</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="J34" s="6">
+        <v>21.88</v>
+      </c>
+      <c r="K34" s="6">
+        <v>10.47</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="7">
+        <f>SUM(B34:O34)</f>
+        <v>98.009999999999991</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="6">
+        <v>51.33</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5.68</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5.66</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="J35" s="6">
+        <v>20.12</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10.88</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="7">
+        <f>SUM(B35:O35)</f>
+        <v>97.899999999999991</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6">
+        <v>68.08</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="J36" s="6">
+        <v>17.14</v>
+      </c>
+      <c r="K36" s="6">
+        <v>4.04</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="7">
+        <f>SUM(B36:O36)</f>
+        <v>98.690000000000026</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="6">
+        <v>63.3</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1.49</v>
+      </c>
+      <c r="G37" s="6">
+        <v>14.34</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="J37" s="6">
+        <v>12.31</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="7">
+        <f>SUM(B37:O37)</f>
+        <v>99.88</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6">
+        <f>AVERAGE(B2:B37)</f>
+        <v>33.614722222222213</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38:O38" si="1">AVERAGE(C2:C37)</f>
+        <v>3.1172727272727272</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32124999999999992</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4835294117647062</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0969565217391304</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8383333333333334</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.95285714285714274</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1135294117647061</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="1"/>
+        <v>36.871944444444438</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="1"/>
+        <v>11.440606060606063</v>
+      </c>
+      <c r="L38" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9863333333333326</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.41218749999999998</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>8.879999999999999</v>
+      </c>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB1125F-AA3F-48A1-A02B-3B1B83FB4390}">
+  <dimension ref="A1:U50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6">
+        <v>37.36</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6">
+        <v>5.45</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.78</v>
+      </c>
+      <c r="J2" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K2" s="6">
+        <v>23.55</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5.75</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7">
+        <f>SUM(B2:O2)</f>
+        <v>88.41</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="6">
+        <v>31.94</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="J3" s="6">
+        <v>29.14</v>
+      </c>
+      <c r="K3" s="6">
+        <v>26.23</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7">
+        <f>SUM(B3:O3)</f>
+        <v>98.88000000000001</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
+        <v>39.22</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10.29</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="7">
+        <f>SUM(B4:O4)</f>
+        <v>97.949999999999989</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6">
+        <v>36.93</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>4.24</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3.86</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.74</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>37.74</v>
+      </c>
+      <c r="K5" s="6">
+        <v>10.35</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="7">
+        <f>SUM(B5:O5)</f>
+        <v>98.7</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6">
+        <v>65.91</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.59</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="J6" s="6">
+        <v>16.55</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3.42</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7">
+        <f>SUM(B6:O6)</f>
+        <v>98.429999999999993</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="J7" s="6">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4.88</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="7">
+        <f>SUM(B7:O7)</f>
+        <v>98.659999999999982</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2.35</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="J8" s="6">
+        <v>16.16</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3.55</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="7">
+        <f>SUM(B8:O8)</f>
+        <v>99.96</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="6">
+        <v>65.91</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="J9" s="6">
+        <v>22.05</v>
+      </c>
+      <c r="K9" s="6">
+        <v>5.68</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="7">
+        <f>SUM(B9:O9)</f>
+        <v>96.21</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6">
+        <v>60.12</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>2.72</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="J10" s="6">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="K10" s="6">
+        <v>10.34</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>3.66</v>
+      </c>
+      <c r="P10" s="7">
+        <f>SUM(B10:O10)</f>
+        <v>99.97999999999999</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="6">
+        <v>61.28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.66</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="J11" s="6">
+        <v>15.99</v>
+      </c>
+      <c r="K11" s="6">
+        <v>10.96</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="7">
+        <f>SUM(B11:O11)</f>
+        <v>98.339999999999989</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="6">
+        <v>55.21</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.79</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="J12" s="6">
+        <v>25.25</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10.06</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="7">
+        <f>SUM(B12:O12)</f>
+        <v>98.63000000000001</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="6">
+        <v>51.54</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4.66</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="J13" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="K13" s="6">
+        <v>9.23</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="7">
+        <f>SUM(B13:O13)</f>
+        <v>97.259999999999991</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="6">
+        <v>49.01</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="J14" s="6">
+        <v>32.92</v>
+      </c>
+      <c r="K14" s="6">
+        <v>7.95</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="7">
+        <f>SUM(B14:O14)</f>
+        <v>96.38000000000001</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
+        <f>AVERAGE(B2:B14)</f>
+        <v>53.443846153846152</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:O15" si="0">AVERAGE(C2:C14)</f>
+        <v>3.3433333333333337</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4554545454545456</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1946153846153851</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0216666666666669</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>23.593846153846155</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>10.499230769230767</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0681818181818181</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.48250000000000004</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="0"/>
+        <v>3.66</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="8"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="8"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="8"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="8"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>